--- a/lifestyleAndHobbies.xlsx
+++ b/lifestyleAndHobbies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6th smester\GT\GT Project\Testing1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43455BCF-1626-4186-8221-4D7FA23C15D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B4129-F184-4295-AB0F-2CC07B021348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4EEEAED4-3DB2-42BB-8541-DBF54FD13B29}"/>
   </bookViews>
@@ -25,57 +25,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>https://cupofjo.com/2024/03/05/women-with-gray-hair-photos/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2024/01/09/three-coj-readers-get-hair-makeovers/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2023/12/19/do-you-have-a-signature-scent/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2023/12/06/bows-trend-hair-jewelry-decor/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2023/10/31/my-friend-gemmas-amazing-lipstick-find/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2023/10/11/celebrities-favorite-beauty-products/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2023/08/17/vogue-september-issue-photoshop-supermodels/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2023/07/12/our-beauty-uniforms-the-10-most-recommended-products/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2023/07/11/the-random-thing-i-get-the-most-compliments-on/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2024/04/11/6-great-pieces-for-outdoor-adventures-lululemon/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2024/03/28/7-pieces-im-packing-for-my-next-trip-plus-a-big-sale/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2024/03/26/week-of-outfits-mya-gelber/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2024/03/07/6-linen-pieces-im-loving-this-spring-plus-a-big-sale/</t>
-  </si>
-  <si>
-    <t>https://cupofjo.com/2023/06/15/mira-jacob-author-interview/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>https://science-education-research.com/posts/</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.com/marketing/education-blogs-you-should-follow-teach-com-list</t>
+  </si>
+  <si>
+    <t>https://education.feedspot.com/top-50-education-blogs-for-educators-and-teachers/</t>
+  </si>
+  <si>
+    <t>https://thecontentpanel.com/blog-post-ideas/education-topics/</t>
+  </si>
+  <si>
+    <t>https://moonpreneur.com/blog/best-education-blogs/</t>
+  </si>
+  <si>
+    <t>https://science-education-research.com/publications/</t>
+  </si>
+  <si>
+    <t>https://geniuslabgear.com/blogs/for-scientists/best-biology-blogs</t>
+  </si>
+  <si>
+    <t>https://www.arcticiceproject.org/news/our-findings/?gad_source=1</t>
+  </si>
+  <si>
+    <t>https://cft.vanderbilt.edu/guides-sub-pages/teaching-with-blogs/</t>
+  </si>
+  <si>
+    <t>https://blog.khanacademy.org/an-introduction-to-learning-science-at-khan-academy/</t>
+  </si>
+  <si>
+    <t>https://wildearthlab.com/blog/</t>
+  </si>
+  <si>
+    <t>https://edublogs.org/</t>
+  </si>
+  <si>
+    <t>https://www.educ.cam.ac.uk/centres/real/blogs/</t>
+  </si>
+  <si>
+    <t>https://www.educationworld.com/a_curr/best-educational-blogs-named.shtml</t>
+  </si>
+  <si>
+    <t>https://www.nova.edu/lec/This-Week-in-the-LEC/2019/August/Benefits%20of%20Blogging%20in%20Education.html</t>
+  </si>
+  <si>
+    <t>https://www.bera.ac.uk/blog/about-this-blog</t>
+  </si>
+  <si>
+    <t>https://bold.expert/?gad_source=1</t>
+  </si>
+  <si>
+    <t>https://www.insidescience.org/?gad_source=1</t>
+  </si>
+  <si>
+    <t>https://www.insidescience.org/technology</t>
+  </si>
+  <si>
+    <t>https://richarddawkins.net/news/?gad_source=1</t>
+  </si>
+  <si>
+    <t>https://richarddawkins.net/2023/11/remembering-our-first-principles/</t>
+  </si>
+  <si>
+    <t>https://amshq.org/blog?gad_source=1</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/</t>
+  </si>
+  <si>
+    <t>https://ncse.ngo/</t>
+  </si>
+  <si>
+    <t>https://www.tableau.com/learn/articles/data-science-blogs</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/285583441_Blogging_to_support_inquiry-based_learning_and_reflection_in_teacher_students'_science_education</t>
+  </si>
+  <si>
+    <t>https://www.edutopia.org/</t>
+  </si>
+  <si>
+    <t>https://www.edutopia.org/article/designing-late-work-policy-high-school</t>
+  </si>
+  <si>
+    <t>https://www.pearson.com/ped-blogs</t>
+  </si>
+  <si>
+    <t>https://www.scientificamerican.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -99,14 +162,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2A3A9907-55FD-4200-B347-75EC32705022}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,91 +490,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD39F7F9-7024-42DD-A40A-243FA37275D6}">
-  <dimension ref="A2:A16"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="127.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>